--- a/ConsoleApp1/Sample/4-Input.xlsx
+++ b/ConsoleApp1/Sample/4-Input.xlsx
@@ -834,9 +834,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5A3D601-56A6-4B80-9BD1-B7430CE62449}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1B9DA2E-70D7-441D-9E92-9E52D49CC503}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{865B468A-71A8-4254-A7EE-53DADC17BF99}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{115A138C-4D23-45C0-A31C-D01A07DDA4FE}"/>
 </file>